--- a/input/params_aggregate.xlsx
+++ b/input/params_aggregate.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/params_aggregate.xlsx
+++ b/input/params_aggregate.xlsx
@@ -11,7 +11,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,36 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="48">
   <si>
-    <t>Group_id</t>
-  </si>
-  <si>
-    <t>Param_Family</t>
-  </si>
-  <si>
-    <t>Param_Area</t>
-  </si>
-  <si>
-    <t>EMI_MASTER</t>
-  </si>
-  <si>
-    <t>EMI_PARENT</t>
-  </si>
-  <si>
-    <t>EMI_SUB</t>
-  </si>
-  <si>
-    <t>PARAMETERCODE</t>
-  </si>
-  <si>
-    <t>Param_Description</t>
-  </si>
-  <si>
-    <t>Param_Data_Format</t>
-  </si>
-  <si>
-    <t>AGG_Function</t>
-  </si>
-  <si>
     <t>AD-4833</t>
   </si>
   <si>
@@ -165,6 +138,36 @@
   </si>
   <si>
     <t>EMI_1066</t>
+  </si>
+  <si>
+    <t>emi_master</t>
+  </si>
+  <si>
+    <t>emi_parent</t>
+  </si>
+  <si>
+    <t>emi_sub</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>groupid</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>dataformat</t>
+  </si>
+  <si>
+    <t>function</t>
   </si>
 </sst>
 </file>
@@ -180,12 +183,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -208,6 +217,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,17 +528,18 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="1" customWidth="1"/>
@@ -530,486 +547,487 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="I15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
